--- a/Variables a evitar.xlsx
+++ b/Variables a evitar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Workspace - Developer\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Workspace - Developer\Java\Cep@l\Cep@l - Formularios\cepal-formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400B883-6C73-486F-B895-A89B0C01B699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511ACE87-74C1-4ECA-AC8B-B476B5B8FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>Variables Parametrizables Cep@l</t>
   </si>
@@ -310,6 +310,111 @@
   </si>
   <si>
     <t>V_TITULOEXP</t>
+  </si>
+  <si>
+    <t>CORREO_AYTO</t>
+  </si>
+  <si>
+    <t>DIA_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>DIA_SISTEMA</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_CP</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Letra</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Municipio</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_NombreVia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Numero</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Piso</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Portal</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Provincia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_TipoVia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_TLF_movil</t>
+  </si>
+  <si>
+    <t>eEMC_ID_Documentacion</t>
+  </si>
+  <si>
+    <t>eEMC_ID_TipoDocumentacion</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_Contacto_Email</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Apellido1</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Apellido2</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Nombre</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Sexo</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PJ_RazonSocial</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Apellido1</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Apellido2</t>
+  </si>
+  <si>
+    <t>eEMC_RP_ID</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Nombre</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Representado</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Sexo</t>
+  </si>
+  <si>
+    <t>EJERCICIO_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>EJERCICIO_SISTEMA</t>
+  </si>
+  <si>
+    <t>EXPOSICION_SOLICITUD</t>
+  </si>
+  <si>
+    <t>FIRMANTE_SOLICITUD</t>
+  </si>
+  <si>
+    <t>MES_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>NUM_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>PIE_123_39_2MESES</t>
+  </si>
+  <si>
+    <t>URL_EELL_DATOS</t>
   </si>
 </sst>
 </file>
@@ -686,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,6 +1250,276 @@
         <v>81</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Variables a evitar.xlsx
+++ b/Variables a evitar.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Workspace - Developer\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jquipsec\Documents\Workspace - Jose\Developer\Java\Cep@l\appFilterVariables\cepal-formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400B883-6C73-486F-B895-A89B0C01B699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$114</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Variables Parametrizables Cep@l</t>
   </si>
@@ -311,11 +314,119 @@
   <si>
     <t>V_TITULOEXP</t>
   </si>
+  <si>
+    <t>CORREO_AYTO</t>
+  </si>
+  <si>
+    <t>DIA_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>DIA_SISTEMA</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_CP</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Letra</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Municipio</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_NombreVia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Numero</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Piso</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Portal</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_Provincia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_Direccion_TipoVia</t>
+  </si>
+  <si>
+    <t>eEMC_Contacto_TLF_movil</t>
+  </si>
+  <si>
+    <t>eEMC_ID_Documentacion</t>
+  </si>
+  <si>
+    <t>eEMC_ID_TipoDocumentacion</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_Contacto_Email</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Apellido1</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Apellido2</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Nombre</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PF_Sexo</t>
+  </si>
+  <si>
+    <t>eEMC_Interesado_PJ_RazonSocial</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Apellido1</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Apellido2</t>
+  </si>
+  <si>
+    <t>eEMC_RP_ID</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Nombre</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Representado</t>
+  </si>
+  <si>
+    <t>eEMC_RP_Sexo</t>
+  </si>
+  <si>
+    <t>EJERCICIO_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>EJERCICIO_SISTEMA</t>
+  </si>
+  <si>
+    <t>EXPOSICION_SOLICITUD</t>
+  </si>
+  <si>
+    <t>FIRMANTE_SOLICITUD</t>
+  </si>
+  <si>
+    <t>MES_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>NUM_REGISTRO_SOLIC</t>
+  </si>
+  <si>
+    <t>PIE_123_39_2MESES</t>
+  </si>
+  <si>
+    <t>URL_EELL_DATOS</t>
+  </si>
+  <si>
+    <t>F_F_SIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,14 +796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
@@ -1145,7 +1256,548 @@
         <v>81</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C114"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
